--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_71.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,493 +488,565 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08307692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:06.800000', '0:01:13.560000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1326923076923077</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'A:min'], ['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.425</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'B:min'], ['D/5', 'A/3', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(88.497, 92.37), (14.168, 18.573)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(33.477936, 40.084013), (21.740249, 26.767369)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1902173913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:45.480000', '0:00:48')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.921927', '0:00:21.908049')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04884868421052631</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2916666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.853174, 10.915124)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.72, 7.99)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(41.02, 43.66), (15.06, 20.56), (26.96, 30.84), (46.12, 48.3), (10.16, 13.84)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.34, 42.08), (12.14, 20.02), (74.1, 80.04), (34.86, 39.7), (25.48, 32.58)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04450549450549451</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:7', 'G', 'G'], ['A:min7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:00:06.380000', '0:00:09.890000'), ('0:00:14.530000', '0:00:17.430000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:06.440000', '0:00:12.420000'), ('0:01:06.800000', '0:01:13.560000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2426470588235294</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.415079, 16.608639)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.913, 26.611)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.14, 83.52)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(66.74, 90.22)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09521739130434782</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08), (18.48, 20.7)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79), (14.3, 17.65)]</t>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'G/2', 'D/5', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(22.169818, 26.29136)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.698568, 32.351768)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2066666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(80.022335, 83.702698)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.7, 13.18)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -978,131 +1055,109 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_56</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_35</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.4, 16.56), (21.88, 24.86), (17.2, 18.68)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.72, 17.02), (22.36, 25.24), (17.76, 19.18)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06038647342995169</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.8, 9.28), (9.92, 11.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(79.98, 87.7), (0.78, 24.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
